--- a/103 - Advanced/Excel103-AdvancedExercises.xlsx
+++ b/103 - Advanced/Excel103-AdvancedExercises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supev\Documents\EOQ\udemy\Excel Course\103 - Advanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAA2BC4-A8D7-465A-B919-7A3BA3808A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDAD5C3-8730-4A42-9033-6B6109F0CCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IF Function" sheetId="4" r:id="rId1"/>
@@ -36,19 +36,22 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'INDEX MATCH Master Emp List'!$A$1:$I$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">Macro!$A$1:$I$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Master Emp List'!$B$1:$I$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SUMIF Function'!$A$2:$E$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'Test Macro'!$A$1:$I$38</definedName>
     <definedName name="Monthly_Goal">'IF Function'!$I$2</definedName>
+    <definedName name="solver_adj" localSheetId="15" hidden="1">Solver!$B$5:$E$7</definedName>
     <definedName name="solver_cvg" localSheetId="15" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="15" hidden="1">100</definedName>
-    <definedName name="solver_lhs1" localSheetId="15" hidden="1">Solver!$B$8:$E$8</definedName>
-    <definedName name="solver_lhs2" localSheetId="15" hidden="1">Solver!$B$8:$E$8</definedName>
-    <definedName name="solver_lhs3" localSheetId="15" hidden="1">Solver!$B$8:$E$8</definedName>
-    <definedName name="solver_lhs4" localSheetId="15" hidden="1">Solver!$B$8:$E$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="15" hidden="1">Solver!$B$5:$E$5</definedName>
+    <definedName name="solver_lhs2" localSheetId="15" hidden="1">Solver!$B$5:$E$7</definedName>
+    <definedName name="solver_lhs3" localSheetId="15" hidden="1">Solver!$B$6:$E$6</definedName>
+    <definedName name="solver_lhs4" localSheetId="15" hidden="1">Solver!$B$7:$E$7</definedName>
     <definedName name="solver_lhs5" localSheetId="15" hidden="1">Solver!$B$8:$E$8</definedName>
     <definedName name="solver_lhs6" localSheetId="15" hidden="1">Solver!$E$8</definedName>
     <definedName name="solver_lhs7" localSheetId="15" hidden="1">Solver!$E$8</definedName>
@@ -62,24 +65,24 @@
     <definedName name="solver_neg" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="15" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="15" hidden="1">5</definedName>
     <definedName name="solver_nwt" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'IF Function'!$I$2</definedName>
     <definedName name="solver_opt" localSheetId="15" hidden="1">Solver!$H$8</definedName>
     <definedName name="solver_pre" localSheetId="15" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="15" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_rel4" localSheetId="15" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="15" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="15" hidden="1">Solver!$B$10:$E$10</definedName>
-    <definedName name="solver_rhs2" localSheetId="15" hidden="1">Solver!$B$10:$E$10</definedName>
-    <definedName name="solver_rhs3" localSheetId="15" hidden="1">Solver!$B$10:$E$10</definedName>
-    <definedName name="solver_rhs4" localSheetId="15" hidden="1">Solver!$B$10:$E$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="15" hidden="1">92</definedName>
+    <definedName name="solver_rhs2" localSheetId="15" hidden="1">20</definedName>
+    <definedName name="solver_rhs3" localSheetId="15" hidden="1">45</definedName>
+    <definedName name="solver_rhs4" localSheetId="15" hidden="1">55</definedName>
     <definedName name="solver_rhs5" localSheetId="15" hidden="1">Solver!$B$10:$E$10</definedName>
     <definedName name="solver_rhs6" localSheetId="15" hidden="1">Solver!$E$10</definedName>
     <definedName name="solver_rhs7" localSheetId="15" hidden="1">Solver!$E$10</definedName>
@@ -114,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="292">
   <si>
     <t>Monthly Goal:</t>
   </si>
@@ -978,21 +981,35 @@
   </si>
   <si>
     <t>the right function will go until the string - first_name</t>
+  </si>
+  <si>
+    <t>Select cell -&gt; Data -&gt; Forecast -&gt; What-if Analysis -&gt; Goal Seek</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Ext</t>
+  </si>
+  <si>
+    <t>Pay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="173" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1115,8 +1132,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1198,6 +1222,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,7 +1680,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="168" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1938,9 +1974,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2005,6 +2038,16 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="20" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="20" fillId="16" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="20" fillId="15" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="20" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="8" builtinId="3"/>
@@ -2030,6 +2073,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2062,8 +2109,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="314325" y="1952625"/>
-          <a:ext cx="4781550" cy="895350"/>
+          <a:off x="314325" y="1931090"/>
+          <a:ext cx="6875393" cy="913986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2344,6 +2391,80 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>53340</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>144780</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20481" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s20481"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C01954B5-4288-CB77-FF27-EED820FF9AC6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:rPr>
+                <a:t>Format Table</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2717,14 +2838,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.8" thickBot="1"/>
     <row r="2" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="130" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
       <c r="H2" s="27" t="s">
         <v>0</v>
       </c>
@@ -2921,13 +3042,13 @@
       <c r="A11" s="47"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="130"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="129"/>
       <c r="F12" s="3">
         <f>COUNTIF(H5:H9,"YES")</f>
         <v>3</v>
@@ -2971,14 +3092,14 @@
       <c r="C1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="133" t="s">
         <v>287</v>
       </c>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
@@ -2996,14 +3117,14 @@
         <f t="shared" ref="E2:E3" si="0">LEN(A2)</f>
         <v>15</v>
       </c>
-      <c r="F2" s="127" t="s">
+      <c r="F2" s="126" t="s">
         <v>285</v>
       </c>
-      <c r="G2" s="126">
+      <c r="G2" s="125">
         <f t="shared" ref="G2:G4" si="1">SEARCH(" ", A2)</f>
         <v>8</v>
       </c>
-      <c r="H2" s="127" t="s">
+      <c r="H2" s="126" t="s">
         <v>286</v>
       </c>
       <c r="I2">
@@ -3026,14 +3147,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F3" s="127" t="s">
+      <c r="F3" s="126" t="s">
         <v>285</v>
       </c>
-      <c r="G3" s="126">
+      <c r="G3" s="125">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H3" s="127" t="s">
+      <c r="H3" s="126" t="s">
         <v>286</v>
       </c>
       <c r="I3">
@@ -3056,14 +3177,14 @@
         <f>LEN(A4)</f>
         <v>11</v>
       </c>
-      <c r="F4" s="127" t="s">
+      <c r="F4" s="126" t="s">
         <v>285</v>
       </c>
-      <c r="G4" s="126">
+      <c r="G4" s="125">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H4" s="127" t="s">
+      <c r="H4" s="126" t="s">
         <v>286</v>
       </c>
       <c r="I4">
@@ -3086,14 +3207,14 @@
         <f t="shared" ref="E5:E6" si="4">LEN(A5)</f>
         <v>12</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="126" t="s">
         <v>285</v>
       </c>
-      <c r="G5" s="126">
+      <c r="G5" s="125">
         <f t="shared" ref="G5:G6" si="5">SEARCH(" ", A5)</f>
         <v>4</v>
       </c>
-      <c r="H5" s="127" t="s">
+      <c r="H5" s="126" t="s">
         <v>286</v>
       </c>
       <c r="I5">
@@ -3116,14 +3237,14 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="F6" s="127" t="s">
+      <c r="F6" s="126" t="s">
         <v>285</v>
       </c>
-      <c r="G6" s="126">
+      <c r="G6" s="125">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="H6" s="127" t="s">
+      <c r="H6" s="126" t="s">
         <v>286</v>
       </c>
       <c r="I6">
@@ -3163,10 +3284,10 @@
       <c r="C2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="136" t="s">
+      <c r="E2" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="136"/>
+      <c r="F2" s="135"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="25" t="s">
@@ -3175,11 +3296,11 @@
       <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="137" t="str">
+      <c r="E3" s="136" t="str">
         <f>CONCATENATE(C3," ",B3)</f>
         <v>Howard Smith</v>
       </c>
-      <c r="F3" s="138"/>
+      <c r="F3" s="137"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="25" t="s">
@@ -3188,11 +3309,11 @@
       <c r="C4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="137" t="str">
+      <c r="E4" s="136" t="str">
         <f>CONCATENATE(B4, " ",C4)</f>
         <v>Gonzales Joe</v>
       </c>
-      <c r="F4" s="138"/>
+      <c r="F4" s="137"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="25" t="s">
@@ -3201,11 +3322,11 @@
       <c r="C5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="137" t="str">
+      <c r="E5" s="136" t="str">
         <f t="shared" ref="E5:E17" si="0">CONCATENATE(B5, " ",C5)</f>
         <v>Scote Gail</v>
       </c>
-      <c r="F5" s="138"/>
+      <c r="F5" s="137"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="25" t="s">
@@ -3214,11 +3335,11 @@
       <c r="C6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="137" t="str">
+      <c r="E6" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Kane Sheryl</v>
       </c>
-      <c r="F6" s="138"/>
+      <c r="F6" s="137"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="25" t="s">
@@ -3227,11 +3348,11 @@
       <c r="C7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="137" t="str">
+      <c r="E7" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Hapsbuch Kendrick</v>
       </c>
-      <c r="F7" s="138"/>
+      <c r="F7" s="137"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="25" t="s">
@@ -3240,11 +3361,11 @@
       <c r="C8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="137" t="str">
+      <c r="E8" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Henders Mark</v>
       </c>
-      <c r="F8" s="138"/>
+      <c r="F8" s="137"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="25" t="s">
@@ -3253,11 +3374,11 @@
       <c r="C9" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="137" t="str">
+      <c r="E9" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Atherton Katie</v>
       </c>
-      <c r="F9" s="138"/>
+      <c r="F9" s="137"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="25" t="s">
@@ -3266,11 +3387,11 @@
       <c r="C10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="137" t="str">
+      <c r="E10" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Bellwood Frank</v>
       </c>
-      <c r="F10" s="138"/>
+      <c r="F10" s="137"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="25" t="s">
@@ -3279,11 +3400,11 @@
       <c r="C11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="137" t="str">
+      <c r="E11" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Cooper Linda</v>
       </c>
-      <c r="F11" s="138"/>
+      <c r="F11" s="137"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="25" t="s">
@@ -3292,11 +3413,11 @@
       <c r="C12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="137" t="str">
+      <c r="E12" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Cronwith Brent</v>
       </c>
-      <c r="F12" s="138"/>
+      <c r="F12" s="137"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="25" t="s">
@@ -3305,11 +3426,11 @@
       <c r="C13" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="137" t="str">
+      <c r="E13" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Simpson Sandrae</v>
       </c>
-      <c r="F13" s="138"/>
+      <c r="F13" s="137"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="25" t="s">
@@ -3318,11 +3439,11 @@
       <c r="C14" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="137" t="str">
+      <c r="E14" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Sindole Randy</v>
       </c>
-      <c r="F14" s="138"/>
+      <c r="F14" s="137"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="25" t="s">
@@ -3331,11 +3452,11 @@
       <c r="C15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="137" t="str">
+      <c r="E15" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Smith Ellen</v>
       </c>
-      <c r="F15" s="138"/>
+      <c r="F15" s="137"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="25" t="s">
@@ -3344,11 +3465,11 @@
       <c r="C16" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="137" t="str">
+      <c r="E16" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Vuanuo Tuome</v>
       </c>
-      <c r="F16" s="138"/>
+      <c r="F16" s="137"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="25" t="s">
@@ -3357,11 +3478,11 @@
       <c r="C17" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="137" t="str">
+      <c r="E17" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Szcznyck Tadeuz</v>
       </c>
-      <c r="F17" s="138"/>
+      <c r="F17" s="137"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="25" t="s">
@@ -3370,11 +3491,11 @@
       <c r="C18" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="137" t="str">
+      <c r="E18" s="136" t="str">
         <f>CONCATENATE(B18, " ",C18)</f>
         <v>Wu Tammy</v>
       </c>
-      <c r="F18" s="138"/>
+      <c r="F18" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -3426,14 +3547,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.8" thickBot="1"/>
     <row r="2" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="130" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
       <c r="H2" s="27" t="s">
         <v>0</v>
       </c>
@@ -3652,13 +3773,13 @@
     </row>
     <row r="13" spans="1:9" ht="3" customHeight="1"/>
     <row r="14" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A14" s="128" t="s">
+      <c r="A14" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="130"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="129"/>
       <c r="F14" s="3">
         <f>COUNTIF(H5:H9, "YES")</f>
         <v>3</v>
@@ -3731,14 +3852,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.8" thickBot="1"/>
     <row r="2" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="130" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
       <c r="H2" s="27" t="s">
         <v>0</v>
       </c>
@@ -3954,17 +4075,17 @@
         <f>SUM(F5:F10)</f>
         <v>352422</v>
       </c>
-      <c r="H12" s="126"/>
+      <c r="H12" s="125"/>
     </row>
     <row r="13" spans="1:9" ht="3" customHeight="1"/>
     <row r="14" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A14" s="128" t="s">
+      <c r="A14" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="130"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="129"/>
       <c r="F14" s="3">
         <f>COUNTIF(H5:H9, "YES")</f>
         <v>3</v>
@@ -3985,10 +4106,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3996,10 +4117,11 @@
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.8" thickBot="1"/>
-    <row r="2" spans="1:4">
+    <row r="1" spans="1:5" ht="13.8" thickBot="1"/>
+    <row r="2" spans="1:5">
       <c r="A2" s="95" t="s">
         <v>254</v>
       </c>
@@ -4011,7 +4133,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.8" thickBot="1">
+    <row r="3" spans="1:5" ht="13.8" thickBot="1">
       <c r="A3" s="95" t="s">
         <v>252</v>
       </c>
@@ -4019,9 +4141,15 @@
         <v>0.08</v>
       </c>
       <c r="C3" s="72"/>
-      <c r="D3" s="93"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="93">
+        <f>-PMT(B3/12,B4,B2)</f>
+        <v>1697.9956826206067</v>
+      </c>
+      <c r="E3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="95" t="s">
         <v>251</v>
       </c>
@@ -4041,8 +4169,8 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -4055,7 +4183,8 @@
     <col min="6" max="6" width="8.88671875" style="76" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="76" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" style="76" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="76"/>
+    <col min="9" max="10" width="9.109375" style="76" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="10.5" customHeight="1">
@@ -4105,16 +4234,16 @@
         <v>271</v>
       </c>
       <c r="B5" s="84">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C5" s="84">
-        <v>1</v>
+        <v>39.999999999999993</v>
       </c>
       <c r="D5" s="84">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="E5" s="84">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="F5" s="72"/>
       <c r="G5" s="83">
@@ -4122,7 +4251,7 @@
       </c>
       <c r="H5" s="82">
         <f>G5*(B5+C5+D5+E5)</f>
-        <v>5</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.6">
@@ -4130,16 +4259,16 @@
         <v>270</v>
       </c>
       <c r="B6" s="86">
-        <v>0</v>
+        <v>32.999999999999986</v>
       </c>
       <c r="C6" s="84">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D6" s="84">
-        <v>0</v>
+        <v>43.000000000000007</v>
       </c>
       <c r="E6" s="84">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6" s="72"/>
       <c r="G6" s="83">
@@ -4147,7 +4276,7 @@
       </c>
       <c r="H6" s="82">
         <f>G6*(B6+C6+D6+E6)</f>
-        <v>0</v>
+        <v>213.44</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.6">
@@ -4155,16 +4284,16 @@
         <v>269</v>
       </c>
       <c r="B7" s="84">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C7" s="84">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D7" s="84">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E7" s="84">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F7" s="72"/>
       <c r="G7" s="83">
@@ -4172,7 +4301,7 @@
       </c>
       <c r="H7" s="82">
         <f>G7*(B7+C7+D7+E7)</f>
-        <v>0</v>
+        <v>258.09999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.6">
@@ -4181,25 +4310,25 @@
       </c>
       <c r="B8" s="81">
         <f>SUM(B5:B7)</f>
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="C8" s="81">
         <f>SUM(C5:C7)</f>
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D8" s="81">
         <f>SUM(D5:D7)</f>
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="E8" s="81">
         <f>SUM(E5:E7)</f>
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="F8" s="72"/>
       <c r="G8" s="80"/>
       <c r="H8" s="103">
         <f>H5+H6+H7</f>
-        <v>5</v>
+        <v>866.54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="4.5" customHeight="1">
@@ -4249,8 +4378,8 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -4302,43 +4431,58 @@
       <c r="B8" s="73">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12">
+        <f t="dataTable" ref="C8:C14" dt2D="0" dtr="0" r1="C3"/>
+        <v>1590.1751010137643</v>
+      </c>
     </row>
     <row r="9" spans="2:3" ht="15.6">
       <c r="B9" s="73">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12">
+        <v>1625.7805911544106</v>
+      </c>
     </row>
     <row r="10" spans="2:3" ht="15.6">
       <c r="B10" s="73">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12">
+        <v>1661.7232770342728</v>
+      </c>
     </row>
     <row r="11" spans="2:3" ht="15.6">
       <c r="B11" s="73">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="12">
+        <v>1734.5902963096128</v>
+      </c>
     </row>
     <row r="12" spans="2:3" ht="15.6">
       <c r="B12" s="73">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="12">
+        <v>1771.4995836166886</v>
+      </c>
     </row>
     <row r="13" spans="2:3" ht="15.6">
       <c r="B13" s="73">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="12">
+        <v>1808.7159994580018</v>
+      </c>
     </row>
     <row r="14" spans="2:3" ht="15.6">
       <c r="B14" s="73">
         <v>0.09</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="12">
+        <v>1846.2319999966555</v>
+      </c>
     </row>
   </sheetData>
   <printOptions gridLines="1" gridLinesSet="0"/>
@@ -4357,7 +4501,7 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -4511,10 +4655,10 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="138" t="s">
         <v>259</v>
       </c>
-      <c r="C10" s="139"/>
+      <c r="C10" s="138"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="112" t="s">
@@ -4549,6 +4693,26 @@
       </c>
     </row>
   </sheetData>
+  <scenarios current="0" show="0">
+    <scenario name="Default Scenario" locked="1" count="4" user="Vicenzo Massao" comment="Created by Vicenzo Massao on 12/11/2024">
+      <inputCells r="C11" val="0.033" numFmtId="10"/>
+      <inputCells r="C12" val="0.023" numFmtId="10"/>
+      <inputCells r="C13" val="0.043" numFmtId="10"/>
+      <inputCells r="C14" val="0.011" numFmtId="10"/>
+    </scenario>
+    <scenario name="Base Case Scenario" locked="1" count="4" user="Vicenzo Massao" comment="Created by Vicenzo Massao on 12/11/2024">
+      <inputCells r="C11" val="0.05" numFmtId="10"/>
+      <inputCells r="C12" val="0.08" numFmtId="10"/>
+      <inputCells r="C13" val="0.065" numFmtId="10"/>
+      <inputCells r="C14" val="0.03" numFmtId="10"/>
+    </scenario>
+    <scenario name="Worst Cane Scenario" locked="1" count="4" user="Vicenzo Massao" comment="Created by Vicenzo Massao on 12/11/2024">
+      <inputCells r="C11" val="0.01" numFmtId="10"/>
+      <inputCells r="C12" val="0.01" numFmtId="10"/>
+      <inputCells r="C13" val="0.01" numFmtId="10"/>
+      <inputCells r="C14" val="0.01" numFmtId="10"/>
+    </scenario>
+  </scenarios>
   <mergeCells count="1">
     <mergeCell ref="B10:C10"/>
   </mergeCells>
@@ -4565,1049 +4729,1055 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="116" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="114"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="115" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="114" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="7">
-        <v>1054</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="7">
-        <v>148</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="115">
-        <v>33344</v>
-      </c>
-      <c r="I1" s="114">
-        <v>11.25</v>
+    <row r="1" spans="1:9" ht="17.399999999999999">
+      <c r="A1" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="139" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="139" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" s="139" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1" s="139" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="145" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="115">
-        <v>29153</v>
-      </c>
-      <c r="I2" s="114">
-        <v>12.25</v>
+      <c r="H2" s="141">
+        <v>33344</v>
+      </c>
+      <c r="I2" s="140">
+        <v>11.25</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F3" s="7">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="115">
-        <v>32040</v>
-      </c>
-      <c r="I3" s="114">
-        <v>14.55</v>
+      <c r="H3" s="141">
+        <v>29153</v>
+      </c>
+      <c r="I3" s="140">
+        <v>12.25</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F4" s="7">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="115">
-        <v>33823</v>
-      </c>
-      <c r="I4" s="114">
-        <v>11.25</v>
+        <v>29</v>
+      </c>
+      <c r="H4" s="141">
+        <v>32040</v>
+      </c>
+      <c r="I4" s="140">
+        <v>14.55</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F5" s="7">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="115">
-        <v>31503</v>
-      </c>
-      <c r="I5" s="114">
-        <v>10.199999999999999</v>
+      <c r="H5" s="141">
+        <v>33823</v>
+      </c>
+      <c r="I5" s="140">
+        <v>11.25</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7">
-        <v>1152</v>
+        <v>1078</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F6" s="7">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="115">
-        <v>32894</v>
-      </c>
-      <c r="I6" s="114">
-        <v>12.25</v>
+      <c r="H6" s="141">
+        <v>31503</v>
+      </c>
+      <c r="I6" s="140">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7">
-        <v>1196</v>
+        <v>1152</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F7" s="7">
-        <v>289</v>
+        <v>118</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="115">
-        <v>35886</v>
-      </c>
-      <c r="I7" s="114">
-        <v>9.9499999999999993</v>
+        <v>40</v>
+      </c>
+      <c r="H7" s="141">
+        <v>32894</v>
+      </c>
+      <c r="I7" s="140">
+        <v>12.25</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7">
-        <v>1284</v>
+        <v>1196</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7">
-        <v>124</v>
+        <v>289</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="115">
-        <v>31051</v>
-      </c>
-      <c r="I8" s="114">
-        <v>12.3</v>
+        <v>24</v>
+      </c>
+      <c r="H8" s="141">
+        <v>35886</v>
+      </c>
+      <c r="I8" s="140">
+        <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="7">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="115">
-        <v>31050</v>
-      </c>
-      <c r="I9" s="114">
-        <v>13.25</v>
+        <v>29</v>
+      </c>
+      <c r="H9" s="141">
+        <v>31051</v>
+      </c>
+      <c r="I9" s="140">
+        <v>12.3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="7">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="115">
-        <v>30939</v>
-      </c>
-      <c r="I10" s="114">
-        <v>10.199999999999999</v>
+        <v>40</v>
+      </c>
+      <c r="H10" s="141">
+        <v>31050</v>
+      </c>
+      <c r="I10" s="140">
+        <v>13.25</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="7">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="115">
-        <v>32863</v>
-      </c>
-      <c r="I11" s="114">
-        <v>12.2</v>
+        <v>24</v>
+      </c>
+      <c r="H11" s="141">
+        <v>30939</v>
+      </c>
+      <c r="I11" s="140">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="7">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="115">
-        <v>30900</v>
-      </c>
-      <c r="I12" s="114">
-        <v>14.25</v>
+      <c r="H12" s="141">
+        <v>32863</v>
+      </c>
+      <c r="I12" s="140">
+        <v>12.2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="7">
-        <v>1310</v>
+        <v>1302</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="115">
-        <v>31689</v>
-      </c>
-      <c r="I13" s="114">
-        <v>11.5</v>
+      <c r="H13" s="141">
+        <v>30900</v>
+      </c>
+      <c r="I13" s="140">
+        <v>14.25</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="7">
-        <v>1329</v>
+        <v>1310</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="115">
-        <v>32561</v>
-      </c>
-      <c r="I14" s="114">
-        <v>10.35</v>
+        <v>29</v>
+      </c>
+      <c r="H14" s="141">
+        <v>31689</v>
+      </c>
+      <c r="I14" s="140">
+        <v>11.5</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="7">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F15" s="7">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="115">
-        <v>32979</v>
-      </c>
-      <c r="I15" s="114">
-        <v>10.15</v>
+        <v>40</v>
+      </c>
+      <c r="H15" s="141">
+        <v>32561</v>
+      </c>
+      <c r="I15" s="140">
+        <v>10.35</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="7">
-        <v>1368</v>
+        <v>1333</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="115">
-        <v>30386</v>
-      </c>
-      <c r="I16" s="114">
-        <v>12.25</v>
+        <v>24</v>
+      </c>
+      <c r="H16" s="141">
+        <v>32979</v>
+      </c>
+      <c r="I16" s="140">
+        <v>10.15</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="7">
-        <v>1509</v>
+        <v>1368</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="115">
-        <v>31217</v>
-      </c>
-      <c r="I17" s="114">
-        <v>13.25</v>
+        <v>40</v>
+      </c>
+      <c r="H17" s="141">
+        <v>30386</v>
+      </c>
+      <c r="I17" s="140">
+        <v>12.25</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="7">
-        <v>1516</v>
+        <v>1509</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F18" s="7">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="115">
-        <v>31112</v>
-      </c>
-      <c r="I18" s="114">
-        <v>9.5</v>
+        <v>29</v>
+      </c>
+      <c r="H18" s="141">
+        <v>31217</v>
+      </c>
+      <c r="I18" s="140">
+        <v>13.25</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="7">
-        <v>1529</v>
+        <v>1516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="115">
-        <v>31805</v>
-      </c>
-      <c r="I19" s="114">
-        <v>11.3</v>
+        <v>40</v>
+      </c>
+      <c r="H19" s="141">
+        <v>31112</v>
+      </c>
+      <c r="I19" s="140">
+        <v>9.5</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="7">
-        <v>1656</v>
+        <v>1529</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="115">
-        <v>32125</v>
-      </c>
-      <c r="I20" s="114">
-        <v>12.35</v>
+      <c r="H20" s="141">
+        <v>31805</v>
+      </c>
+      <c r="I20" s="140">
+        <v>11.3</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="7">
-        <v>1672</v>
+        <v>1656</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F21" s="7">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="115">
+      <c r="H21" s="141">
+        <v>32125</v>
+      </c>
+      <c r="I21" s="140">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="7">
+        <v>1672</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="7">
+        <v>114</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="141">
         <v>32979</v>
       </c>
-      <c r="I21" s="114">
+      <c r="I22" s="140">
         <v>11.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="26.4">
-      <c r="A22" s="7">
-        <v>1673</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="7">
-        <v>112</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="115">
-        <v>33688</v>
-      </c>
-      <c r="I22" s="114">
-        <v>11.85</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="7">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F23" s="7">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="115">
-        <v>29885</v>
-      </c>
-      <c r="I23" s="114">
-        <v>10.75</v>
+        <v>40</v>
+      </c>
+      <c r="H23" s="141">
+        <v>33688</v>
+      </c>
+      <c r="I23" s="140">
+        <v>11.85</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="7">
-        <v>1721</v>
+        <v>1676</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F24" s="7">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="115">
-        <v>33091</v>
-      </c>
-      <c r="I24" s="114">
-        <v>9.75</v>
+        <v>29</v>
+      </c>
+      <c r="H24" s="141">
+        <v>29885</v>
+      </c>
+      <c r="I24" s="140">
+        <v>10.75</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="7">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F25" s="7">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="115">
-        <v>28531</v>
-      </c>
-      <c r="I25" s="114">
-        <v>13.95</v>
+        <v>24</v>
+      </c>
+      <c r="H25" s="141">
+        <v>33091</v>
+      </c>
+      <c r="I25" s="140">
+        <v>9.75</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="7">
-        <v>1758</v>
+        <v>1723</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F26" s="7">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="115">
-        <v>30028</v>
-      </c>
-      <c r="I26" s="114">
-        <v>11.2</v>
+        <v>29</v>
+      </c>
+      <c r="H26" s="141">
+        <v>28531</v>
+      </c>
+      <c r="I26" s="140">
+        <v>13.95</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="7">
-        <v>1792</v>
+        <v>1758</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F27" s="7">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="115">
-        <v>33231</v>
-      </c>
-      <c r="I27" s="114">
-        <v>10.3</v>
+        <v>40</v>
+      </c>
+      <c r="H27" s="141">
+        <v>30028</v>
+      </c>
+      <c r="I27" s="140">
+        <v>11.2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
-        <v>1814</v>
+        <v>1792</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="7">
         <v>111</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="7">
-        <v>103</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="115">
-        <v>32571</v>
-      </c>
-      <c r="I28" s="114">
-        <v>12.25</v>
+        <v>29</v>
+      </c>
+      <c r="H28" s="141">
+        <v>33231</v>
+      </c>
+      <c r="I28" s="140">
+        <v>10.3</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7">
-        <v>1908</v>
+        <v>1814</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F29" s="7">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="115">
-        <v>30817</v>
-      </c>
-      <c r="I29" s="114">
-        <v>10.25</v>
+        <v>24</v>
+      </c>
+      <c r="H29" s="141">
+        <v>32571</v>
+      </c>
+      <c r="I29" s="140">
+        <v>12.25</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="7">
-        <v>1931</v>
+        <v>1908</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F30" s="7">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="115">
-        <v>32679</v>
-      </c>
-      <c r="I30" s="114">
-        <v>9.85</v>
+        <v>29</v>
+      </c>
+      <c r="H30" s="141">
+        <v>30817</v>
+      </c>
+      <c r="I30" s="140">
+        <v>10.25</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="7">
-        <v>1960</v>
+        <v>1931</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F31" s="7">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="115">
-        <v>31729</v>
-      </c>
-      <c r="I31" s="114">
-        <v>11.65</v>
+        <v>40</v>
+      </c>
+      <c r="H31" s="141">
+        <v>32679</v>
+      </c>
+      <c r="I31" s="140">
+        <v>9.85</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="7">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F32" s="7">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="115">
-        <v>33559</v>
-      </c>
-      <c r="I32" s="114">
-        <v>9.25</v>
+        <v>29</v>
+      </c>
+      <c r="H32" s="141">
+        <v>31729</v>
+      </c>
+      <c r="I32" s="140">
+        <v>11.65</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="7">
-        <v>1975</v>
+        <v>1964</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F33" s="7">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="115">
-        <v>35125</v>
-      </c>
-      <c r="I33" s="114">
+      <c r="H33" s="141">
+        <v>33559</v>
+      </c>
+      <c r="I33" s="140">
         <v>9.25</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="7">
-        <v>1983</v>
+        <v>1975</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F34" s="7">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="115">
-        <v>35609</v>
-      </c>
-      <c r="I34" s="114">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="H34" s="141">
+        <v>35125</v>
+      </c>
+      <c r="I34" s="140">
+        <v>9.25</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="7">
-        <v>1990</v>
+        <v>1983</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F35" s="7">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="115">
-        <v>35840</v>
-      </c>
-      <c r="I35" s="114">
-        <v>10.95</v>
+      <c r="H35" s="141">
+        <v>35609</v>
+      </c>
+      <c r="I35" s="140">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="7">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F36" s="7">
         <v>198</v>
@@ -5615,43 +5785,73 @@
       <c r="G36" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="115">
-        <v>35855</v>
-      </c>
-      <c r="I36" s="114">
-        <v>11.75</v>
+      <c r="H36" s="141">
+        <v>35840</v>
+      </c>
+      <c r="I36" s="140">
+        <v>10.95</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="7">
+        <v>1995</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="7">
+        <v>198</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="141">
+        <v>35855</v>
+      </c>
+      <c r="I37" s="140">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="7">
         <v>1999</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F38" s="7">
         <v>428</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="115">
+      <c r="H38" s="141">
         <v>35981</v>
       </c>
-      <c r="I37" s="114">
+      <c r="I38" s="140">
         <v>10.15</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I38" xr:uid="{00000000-0001-0000-1000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10604,1051 +10804,1057 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="116" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="114"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="115" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="114" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="7">
-        <v>1054</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="7">
-        <v>148</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="115">
-        <v>33344</v>
-      </c>
-      <c r="I1" s="114">
-        <v>11.25</v>
+    <row r="1" spans="1:9" ht="17.399999999999999">
+      <c r="A1" s="142" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="142" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" s="142" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1" s="142" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="143" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="144" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="115">
-        <v>29153</v>
-      </c>
-      <c r="I2" s="114">
-        <v>12.25</v>
+      <c r="H2" s="141">
+        <v>33344</v>
+      </c>
+      <c r="I2" s="140">
+        <v>11.25</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F3" s="7">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="115">
-        <v>32040</v>
-      </c>
-      <c r="I3" s="114">
-        <v>14.55</v>
+      <c r="H3" s="141">
+        <v>29153</v>
+      </c>
+      <c r="I3" s="140">
+        <v>12.25</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F4" s="7">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="115">
-        <v>33823</v>
-      </c>
-      <c r="I4" s="114">
-        <v>11.25</v>
+        <v>29</v>
+      </c>
+      <c r="H4" s="141">
+        <v>32040</v>
+      </c>
+      <c r="I4" s="140">
+        <v>14.55</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F5" s="7">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="115">
-        <v>31503</v>
-      </c>
-      <c r="I5" s="114">
-        <v>10.199999999999999</v>
+      <c r="H5" s="141">
+        <v>33823</v>
+      </c>
+      <c r="I5" s="140">
+        <v>11.25</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7">
-        <v>1152</v>
+        <v>1078</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F6" s="7">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="115">
-        <v>32894</v>
-      </c>
-      <c r="I6" s="114">
-        <v>12.25</v>
+      <c r="H6" s="141">
+        <v>31503</v>
+      </c>
+      <c r="I6" s="140">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7">
-        <v>1196</v>
+        <v>1152</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F7" s="7">
-        <v>289</v>
+        <v>118</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="115">
-        <v>35886</v>
-      </c>
-      <c r="I7" s="114">
-        <v>9.9499999999999993</v>
+        <v>40</v>
+      </c>
+      <c r="H7" s="141">
+        <v>32894</v>
+      </c>
+      <c r="I7" s="140">
+        <v>12.25</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7">
-        <v>1284</v>
+        <v>1196</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7">
-        <v>124</v>
+        <v>289</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="115">
-        <v>31051</v>
-      </c>
-      <c r="I8" s="114">
-        <v>12.3</v>
+        <v>24</v>
+      </c>
+      <c r="H8" s="141">
+        <v>35886</v>
+      </c>
+      <c r="I8" s="140">
+        <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="7">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="115">
-        <v>31050</v>
-      </c>
-      <c r="I9" s="114">
-        <v>13.25</v>
+        <v>29</v>
+      </c>
+      <c r="H9" s="141">
+        <v>31051</v>
+      </c>
+      <c r="I9" s="140">
+        <v>12.3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="7">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="115">
-        <v>30939</v>
-      </c>
-      <c r="I10" s="114">
-        <v>10.199999999999999</v>
+        <v>40</v>
+      </c>
+      <c r="H10" s="141">
+        <v>31050</v>
+      </c>
+      <c r="I10" s="140">
+        <v>13.25</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="7">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="115">
-        <v>32863</v>
-      </c>
-      <c r="I11" s="114">
-        <v>12.2</v>
+        <v>24</v>
+      </c>
+      <c r="H11" s="141">
+        <v>30939</v>
+      </c>
+      <c r="I11" s="140">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="7">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="115">
-        <v>30900</v>
-      </c>
-      <c r="I12" s="114">
-        <v>14.25</v>
+      <c r="H12" s="141">
+        <v>32863</v>
+      </c>
+      <c r="I12" s="140">
+        <v>12.2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="7">
-        <v>1310</v>
+        <v>1302</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="115">
-        <v>31689</v>
-      </c>
-      <c r="I13" s="114">
-        <v>11.5</v>
+      <c r="H13" s="141">
+        <v>30900</v>
+      </c>
+      <c r="I13" s="140">
+        <v>14.25</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="7">
-        <v>1329</v>
+        <v>1310</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="115">
-        <v>32561</v>
-      </c>
-      <c r="I14" s="114">
-        <v>10.35</v>
+        <v>29</v>
+      </c>
+      <c r="H14" s="141">
+        <v>31689</v>
+      </c>
+      <c r="I14" s="140">
+        <v>11.5</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="7">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F15" s="7">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="115">
-        <v>32979</v>
-      </c>
-      <c r="I15" s="114">
-        <v>10.15</v>
+        <v>40</v>
+      </c>
+      <c r="H15" s="141">
+        <v>32561</v>
+      </c>
+      <c r="I15" s="140">
+        <v>10.35</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="7">
-        <v>1368</v>
+        <v>1333</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="115">
-        <v>30386</v>
-      </c>
-      <c r="I16" s="114">
-        <v>12.25</v>
+        <v>24</v>
+      </c>
+      <c r="H16" s="141">
+        <v>32979</v>
+      </c>
+      <c r="I16" s="140">
+        <v>10.15</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="7">
-        <v>1509</v>
+        <v>1368</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="115">
-        <v>31217</v>
-      </c>
-      <c r="I17" s="114">
-        <v>13.25</v>
+        <v>40</v>
+      </c>
+      <c r="H17" s="141">
+        <v>30386</v>
+      </c>
+      <c r="I17" s="140">
+        <v>12.25</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="7">
-        <v>1516</v>
+        <v>1509</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F18" s="7">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="115">
-        <v>31112</v>
-      </c>
-      <c r="I18" s="114">
-        <v>9.5</v>
+        <v>29</v>
+      </c>
+      <c r="H18" s="141">
+        <v>31217</v>
+      </c>
+      <c r="I18" s="140">
+        <v>13.25</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="7">
-        <v>1529</v>
+        <v>1516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="115">
-        <v>31805</v>
-      </c>
-      <c r="I19" s="114">
-        <v>11.3</v>
+        <v>40</v>
+      </c>
+      <c r="H19" s="141">
+        <v>31112</v>
+      </c>
+      <c r="I19" s="140">
+        <v>9.5</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="7">
-        <v>1656</v>
+        <v>1529</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="115">
-        <v>32125</v>
-      </c>
-      <c r="I20" s="114">
-        <v>12.35</v>
+      <c r="H20" s="141">
+        <v>31805</v>
+      </c>
+      <c r="I20" s="140">
+        <v>11.3</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="7">
-        <v>1672</v>
+        <v>1656</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F21" s="7">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="115">
+      <c r="H21" s="141">
+        <v>32125</v>
+      </c>
+      <c r="I21" s="140">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="7">
+        <v>1672</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="7">
+        <v>114</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="141">
         <v>32979</v>
       </c>
-      <c r="I21" s="114">
+      <c r="I22" s="140">
         <v>11.9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="26.4">
-      <c r="A22" s="7">
+    <row r="23" spans="1:9" ht="26.4">
+      <c r="A23" s="7">
         <v>1673</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="7">
         <v>112</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="115">
+      <c r="H23" s="141">
         <v>33688</v>
       </c>
-      <c r="I22" s="114">
+      <c r="I23" s="140">
         <v>11.85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="7">
-        <v>1676</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="7">
-        <v>115</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="115">
-        <v>29885</v>
-      </c>
-      <c r="I23" s="114">
-        <v>10.75</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="7">
-        <v>1721</v>
+        <v>1676</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F24" s="7">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="115">
-        <v>33091</v>
-      </c>
-      <c r="I24" s="114">
-        <v>9.75</v>
+        <v>29</v>
+      </c>
+      <c r="H24" s="141">
+        <v>29885</v>
+      </c>
+      <c r="I24" s="140">
+        <v>10.75</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="7">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F25" s="7">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="115">
-        <v>28531</v>
-      </c>
-      <c r="I25" s="114">
-        <v>13.95</v>
+        <v>24</v>
+      </c>
+      <c r="H25" s="141">
+        <v>33091</v>
+      </c>
+      <c r="I25" s="140">
+        <v>9.75</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="7">
-        <v>1758</v>
+        <v>1723</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F26" s="7">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="115">
-        <v>30028</v>
-      </c>
-      <c r="I26" s="114">
-        <v>11.2</v>
+        <v>29</v>
+      </c>
+      <c r="H26" s="141">
+        <v>28531</v>
+      </c>
+      <c r="I26" s="140">
+        <v>13.95</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="7">
-        <v>1792</v>
+        <v>1758</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F27" s="7">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="115">
-        <v>33231</v>
-      </c>
-      <c r="I27" s="114">
-        <v>10.3</v>
+        <v>40</v>
+      </c>
+      <c r="H27" s="141">
+        <v>30028</v>
+      </c>
+      <c r="I27" s="140">
+        <v>11.2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
-        <v>1814</v>
+        <v>1792</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="7">
         <v>111</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="7">
-        <v>103</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="115">
-        <v>32571</v>
-      </c>
-      <c r="I28" s="114">
-        <v>12.25</v>
+        <v>29</v>
+      </c>
+      <c r="H28" s="141">
+        <v>33231</v>
+      </c>
+      <c r="I28" s="140">
+        <v>10.3</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7">
-        <v>1908</v>
+        <v>1814</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F29" s="7">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="115">
-        <v>30817</v>
-      </c>
-      <c r="I29" s="114">
-        <v>10.25</v>
+        <v>24</v>
+      </c>
+      <c r="H29" s="141">
+        <v>32571</v>
+      </c>
+      <c r="I29" s="140">
+        <v>12.25</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="7">
-        <v>1931</v>
+        <v>1908</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F30" s="7">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="115">
-        <v>32679</v>
-      </c>
-      <c r="I30" s="114">
-        <v>9.85</v>
+        <v>29</v>
+      </c>
+      <c r="H30" s="141">
+        <v>30817</v>
+      </c>
+      <c r="I30" s="140">
+        <v>10.25</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="7">
-        <v>1960</v>
+        <v>1931</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F31" s="7">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="115">
-        <v>31729</v>
-      </c>
-      <c r="I31" s="114">
-        <v>11.65</v>
+        <v>40</v>
+      </c>
+      <c r="H31" s="141">
+        <v>32679</v>
+      </c>
+      <c r="I31" s="140">
+        <v>9.85</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="7">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F32" s="7">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="115">
-        <v>33559</v>
-      </c>
-      <c r="I32" s="114">
-        <v>9.25</v>
+        <v>29</v>
+      </c>
+      <c r="H32" s="141">
+        <v>31729</v>
+      </c>
+      <c r="I32" s="140">
+        <v>11.65</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="7">
-        <v>1975</v>
+        <v>1964</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F33" s="7">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="115">
-        <v>35125</v>
-      </c>
-      <c r="I33" s="114">
+      <c r="H33" s="141">
+        <v>33559</v>
+      </c>
+      <c r="I33" s="140">
         <v>9.25</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="7">
-        <v>1983</v>
+        <v>1975</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F34" s="7">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="115">
-        <v>35609</v>
-      </c>
-      <c r="I34" s="114">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="H34" s="141">
+        <v>35125</v>
+      </c>
+      <c r="I34" s="140">
+        <v>9.25</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="7">
-        <v>1990</v>
+        <v>1983</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F35" s="7">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="115">
-        <v>35840</v>
-      </c>
-      <c r="I35" s="114">
-        <v>10.95</v>
+      <c r="H35" s="141">
+        <v>35609</v>
+      </c>
+      <c r="I35" s="140">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="7">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F36" s="7">
         <v>198</v>
@@ -11656,44 +11862,104 @@
       <c r="G36" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="115">
-        <v>35855</v>
-      </c>
-      <c r="I36" s="114">
-        <v>11.75</v>
+      <c r="H36" s="141">
+        <v>35840</v>
+      </c>
+      <c r="I36" s="140">
+        <v>10.95</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="7">
+        <v>1995</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="7">
+        <v>198</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="141">
+        <v>35855</v>
+      </c>
+      <c r="I37" s="140">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="7">
         <v>1999</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F38" s="7">
         <v>428</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="115">
+      <c r="H38" s="141">
         <v>35981</v>
       </c>
-      <c r="I37" s="114">
+      <c r="I38" s="140">
         <v>10.15</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I38" xr:uid="{00000000-0001-0000-1100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="20481" r:id="rId3" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!SimpleFormatTable">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>518160</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>53340</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>144780</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -11737,7 +12003,7 @@
       <c r="F2" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="122"/>
+      <c r="G2" s="121"/>
       <c r="I2" s="32" t="s">
         <v>16</v>
       </c>
@@ -12407,6 +12673,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE727711-D0A2-4196-A6AA-50DDE55C0A6F}">
+  <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -13551,10 +13818,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.8" thickBot="1"/>
     <row r="2" spans="1:2" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="131" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="133"/>
+      <c r="B2" s="132"/>
     </row>
     <row r="3" spans="1:2" ht="16.8" thickTop="1" thickBot="1">
       <c r="A3" s="59" t="s">
@@ -13719,6 +13986,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A99380-3415-42C6-8C41-613698A280FA}">
+  <sheetPr codeName="Sheet20"/>
   <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -13736,24 +14004,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="40.200000000000003" thickBot="1">
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="117" t="s">
         <v>281</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="120" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="13.8">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="116" t="s">
         <v>283</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="118" t="s">
         <v>240</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="F3" s="120" t="s">
+      <c r="F3" s="119" t="s">
         <v>239</v>
       </c>
     </row>
@@ -13782,7 +14050,7 @@
       <c r="B5" s="66">
         <v>1078</v>
       </c>
-      <c r="C5" s="123" t="str">
+      <c r="C5" s="122" t="str">
         <f>INDEX('INDEX MATCH Master Emp List'!$C$2:$C$38,5)</f>
         <v>AC</v>
       </c>
@@ -15127,7 +15395,7 @@
         <f>MID(A3,4,3)</f>
         <v>110</v>
       </c>
-      <c r="G3" s="124" t="str">
+      <c r="G3" s="123" t="str">
         <f>RIGHT(A3,2)</f>
         <v>WW</v>
       </c>
@@ -15135,7 +15403,7 @@
         <f>LEN(A3)</f>
         <v>8</v>
       </c>
-      <c r="J3" s="125" t="str">
+      <c r="J3" s="124" t="str">
         <f t="shared" ref="J3:J20" si="0">IF(LEN(A3)=8,RIGHT(A3,2),RIGHT(A3,4))</f>
         <v>WW</v>
       </c>
@@ -15159,7 +15427,7 @@
         <f>MID(A4,4,3)</f>
         <v>111</v>
       </c>
-      <c r="G4" s="124" t="str">
+      <c r="G4" s="123" t="str">
         <f>RIGHT(A4,2)</f>
         <v>WW</v>
       </c>
@@ -15167,7 +15435,7 @@
         <f t="shared" ref="H4:H26" si="1">LEN(A4)</f>
         <v>8</v>
       </c>
-      <c r="J4" s="125" t="str">
+      <c r="J4" s="124" t="str">
         <f t="shared" si="0"/>
         <v>WW</v>
       </c>
@@ -15191,7 +15459,7 @@
         <f t="shared" ref="F5:F26" si="3">MID(A5,4,3)</f>
         <v>150</v>
       </c>
-      <c r="G5" s="124" t="str">
+      <c r="G5" s="123" t="str">
         <f t="shared" ref="G5:G26" si="4">RIGHT(A5,2)</f>
         <v>WW</v>
       </c>
@@ -15199,7 +15467,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J5" s="125" t="str">
+      <c r="J5" s="124" t="str">
         <f t="shared" si="0"/>
         <v>WW</v>
       </c>
@@ -15223,7 +15491,7 @@
         <f t="shared" si="3"/>
         <v>321</v>
       </c>
-      <c r="G6" s="124" t="str">
+      <c r="G6" s="123" t="str">
         <f t="shared" si="4"/>
         <v>DP</v>
       </c>
@@ -15231,7 +15499,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J6" s="125" t="str">
+      <c r="J6" s="124" t="str">
         <f t="shared" si="0"/>
         <v>DP</v>
       </c>
@@ -15255,7 +15523,7 @@
         <f t="shared" si="3"/>
         <v>322</v>
       </c>
-      <c r="G7" s="124" t="str">
+      <c r="G7" s="123" t="str">
         <f t="shared" si="4"/>
         <v>DP</v>
       </c>
@@ -15263,7 +15531,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J7" s="125" t="str">
+      <c r="J7" s="124" t="str">
         <f t="shared" si="0"/>
         <v>DP</v>
       </c>
@@ -15287,7 +15555,7 @@
         <f t="shared" si="3"/>
         <v>325</v>
       </c>
-      <c r="G8" s="124" t="str">
+      <c r="G8" s="123" t="str">
         <f t="shared" si="4"/>
         <v>DP</v>
       </c>
@@ -15295,7 +15563,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J8" s="125" t="str">
+      <c r="J8" s="124" t="str">
         <f t="shared" si="0"/>
         <v>DP</v>
       </c>
@@ -15319,7 +15587,7 @@
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="G9" s="124" t="str">
+      <c r="G9" s="123" t="str">
         <f t="shared" si="4"/>
         <v>DP</v>
       </c>
@@ -15327,7 +15595,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J9" s="125" t="str">
+      <c r="J9" s="124" t="str">
         <f t="shared" si="0"/>
         <v>DP</v>
       </c>
@@ -15351,7 +15619,7 @@
         <f t="shared" si="3"/>
         <v>450</v>
       </c>
-      <c r="G10" s="124" t="str">
+      <c r="G10" s="123" t="str">
         <f t="shared" si="4"/>
         <v>DP</v>
       </c>
@@ -15359,7 +15627,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J10" s="125" t="str">
+      <c r="J10" s="124" t="str">
         <f t="shared" si="0"/>
         <v>DP</v>
       </c>
@@ -15383,7 +15651,7 @@
         <f t="shared" si="3"/>
         <v>460</v>
       </c>
-      <c r="G11" s="124" t="str">
+      <c r="G11" s="123" t="str">
         <f t="shared" si="4"/>
         <v>DP</v>
       </c>
@@ -15391,7 +15659,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J11" s="125" t="str">
+      <c r="J11" s="124" t="str">
         <f t="shared" si="0"/>
         <v>DP</v>
       </c>
@@ -15415,7 +15683,7 @@
         <f t="shared" si="3"/>
         <v>530</v>
       </c>
-      <c r="G12" s="124" t="str">
+      <c r="G12" s="123" t="str">
         <f t="shared" si="4"/>
         <v>OL</v>
       </c>
@@ -15423,7 +15691,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J12" s="125" t="str">
+      <c r="J12" s="124" t="str">
         <f t="shared" si="0"/>
         <v>OL</v>
       </c>
@@ -15447,7 +15715,7 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="G13" s="124" t="str">
+      <c r="G13" s="123" t="str">
         <f t="shared" si="4"/>
         <v>TF</v>
       </c>
@@ -15455,7 +15723,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J13" s="125" t="str">
+      <c r="J13" s="124" t="str">
         <f t="shared" si="0"/>
         <v>TF</v>
       </c>
@@ -15479,7 +15747,7 @@
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="G14" s="124" t="str">
+      <c r="G14" s="123" t="str">
         <f t="shared" si="4"/>
         <v>OL</v>
       </c>
@@ -15487,7 +15755,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J14" s="125" t="str">
+      <c r="J14" s="124" t="str">
         <f t="shared" si="0"/>
         <v>OL</v>
       </c>
@@ -15511,7 +15779,7 @@
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="G15" s="124" t="str">
+      <c r="G15" s="123" t="str">
         <f t="shared" si="4"/>
         <v>OL</v>
       </c>
@@ -15519,7 +15787,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J15" s="125" t="str">
+      <c r="J15" s="124" t="str">
         <f t="shared" si="0"/>
         <v>OL</v>
       </c>
@@ -15543,7 +15811,7 @@
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="G16" s="124" t="str">
+      <c r="G16" s="123" t="str">
         <f t="shared" si="4"/>
         <v>GO</v>
       </c>
@@ -15551,7 +15819,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J16" s="125" t="str">
+      <c r="J16" s="124" t="str">
         <f t="shared" si="0"/>
         <v>GO</v>
       </c>
@@ -15575,7 +15843,7 @@
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="G17" s="124" t="str">
+      <c r="G17" s="123" t="str">
         <f t="shared" si="4"/>
         <v>BF</v>
       </c>
@@ -15583,7 +15851,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J17" s="125" t="str">
+      <c r="J17" s="124" t="str">
         <f t="shared" si="0"/>
         <v>BF</v>
       </c>
@@ -15607,7 +15875,7 @@
         <f t="shared" si="3"/>
         <v>132</v>
       </c>
-      <c r="G18" s="124" t="str">
+      <c r="G18" s="123" t="str">
         <f t="shared" si="4"/>
         <v>PS</v>
       </c>
@@ -15615,7 +15883,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J18" s="125" t="str">
+      <c r="J18" s="124" t="str">
         <f t="shared" si="0"/>
         <v>PS</v>
       </c>
@@ -15639,7 +15907,7 @@
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
-      <c r="G19" s="124" t="str">
+      <c r="G19" s="123" t="str">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
@@ -15647,7 +15915,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J19" s="125" t="str">
+      <c r="J19" s="124" t="str">
         <f t="shared" si="0"/>
         <v>0995</v>
       </c>
@@ -15671,7 +15939,7 @@
         <f t="shared" si="3"/>
         <v>590</v>
       </c>
-      <c r="G20" s="124" t="str">
+      <c r="G20" s="123" t="str">
         <f t="shared" si="4"/>
         <v>WF</v>
       </c>
@@ -15679,7 +15947,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J20" s="125" t="str">
+      <c r="J20" s="124" t="str">
         <f t="shared" si="0"/>
         <v>WF</v>
       </c>
@@ -15703,7 +15971,7 @@
         <f t="shared" si="3"/>
         <v>690</v>
       </c>
-      <c r="G21" s="124" t="str">
+      <c r="G21" s="123" t="str">
         <f t="shared" si="4"/>
         <v>AF</v>
       </c>
@@ -15711,7 +15979,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J21" s="125" t="str">
+      <c r="J21" s="124" t="str">
         <f>IF(LEN(A21)=8,RIGHT(A21,2),RIGHT(A21,4))</f>
         <v>AF</v>
       </c>
@@ -15735,7 +16003,7 @@
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-      <c r="G22" s="124" t="str">
+      <c r="G22" s="123" t="str">
         <f t="shared" si="4"/>
         <v>OF</v>
       </c>
@@ -15743,7 +16011,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J22" s="125" t="str">
+      <c r="J22" s="124" t="str">
         <f t="shared" ref="J22:J26" si="5">IF(LEN(A22)=8,RIGHT(A22,2),RIGHT(A22,4))</f>
         <v>OF</v>
       </c>
@@ -15767,7 +16035,7 @@
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
-      <c r="G23" s="124" t="str">
+      <c r="G23" s="123" t="str">
         <f t="shared" si="4"/>
         <v>OF</v>
       </c>
@@ -15775,7 +16043,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J23" s="125" t="str">
+      <c r="J23" s="124" t="str">
         <f t="shared" si="5"/>
         <v>OF</v>
       </c>
@@ -15799,7 +16067,7 @@
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
-      <c r="G24" s="124" t="str">
+      <c r="G24" s="123" t="str">
         <f t="shared" si="4"/>
         <v>OF</v>
       </c>
@@ -15807,7 +16075,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J24" s="125" t="str">
+      <c r="J24" s="124" t="str">
         <f t="shared" si="5"/>
         <v>OF</v>
       </c>
@@ -15831,7 +16099,7 @@
         <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="G25" s="124" t="str">
+      <c r="G25" s="123" t="str">
         <f t="shared" si="4"/>
         <v>OF</v>
       </c>
@@ -15839,7 +16107,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J25" s="125" t="str">
+      <c r="J25" s="124" t="str">
         <f t="shared" si="5"/>
         <v>OF</v>
       </c>
@@ -15863,7 +16131,7 @@
         <f t="shared" si="3"/>
         <v>610</v>
       </c>
-      <c r="G26" s="124" t="str">
+      <c r="G26" s="123" t="str">
         <f t="shared" si="4"/>
         <v>OF</v>
       </c>
@@ -15871,7 +16139,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J26" s="125" t="str">
+      <c r="J26" s="124" t="str">
         <f t="shared" si="5"/>
         <v>OF</v>
       </c>
